--- a/Nowcasts/Federal-Reserve-Bank-of-New-York/New-York-Fed_Staff-Nowcast/Staff-Nowcast.xlsx
+++ b/Nowcasts/Federal-Reserve-Bank-of-New-York/New-York-Fed_Staff-Nowcast/Staff-Nowcast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SHARE\drf\TimeSeries\products\nowcast\automated_nowcast\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29750A7C-95C0-4950-AFA7-23407C3A5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F96195-F2FB-41ED-8C0C-49635E76ECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{ABCE1506-5AF9-4A77-93FF-F8162337FD42}"/>
+    <workbookView xWindow="-15720" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{ABCE1506-5AF9-4A77-93FF-F8162337FD42}"/>
   </bookViews>
   <sheets>
     <sheet name="New York Fed Nowcast" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Forecast Date</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>2023:Q4</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024:Q1</t>
   </si>
 </sst>
 </file>
@@ -876,7 +885,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -929,6 +938,10 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="44" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -944,7 +957,6 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1129,9 +1141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:colOff>1654177</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>34927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,9 +1197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>92078</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>34928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1536,32 +1548,32 @@
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="129.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="129.453125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1718,7 +1730,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>24</v>
       </c>
@@ -1765,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1670CA3-538E-42E7-9E1F-A6A72E94A86A}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,31 +1790,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
@@ -1820,6 +1832,12 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
@@ -1889,7 +1907,7 @@
       <c r="A15" s="2">
         <v>44953</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>1.2</v>
       </c>
     </row>
@@ -1924,7 +1942,7 @@
       <c r="B19">
         <v>2.84</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1957,7 +1975,7 @@
       <c r="B22">
         <v>1.89</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="26">
         <v>1.3</v>
       </c>
     </row>
@@ -1968,7 +1986,7 @@
       <c r="B23">
         <v>1.47</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="26">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1976,7 +1994,7 @@
       <c r="A24" s="2">
         <v>45016</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>1.4</v>
       </c>
       <c r="C24">
@@ -2058,7 +2076,7 @@
       <c r="C32">
         <v>1.57</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2080,7 +2098,7 @@
       <c r="C34">
         <v>1.43</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="26">
         <v>1.9</v>
       </c>
     </row>
@@ -2102,7 +2120,7 @@
       <c r="C36">
         <v>1.52</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2173,7 +2191,7 @@
       <c r="A43" s="2">
         <v>45149</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="26">
         <v>1.7</v>
       </c>
     </row>
@@ -2212,11 +2230,205 @@
         <v>2.25</v>
       </c>
       <c r="E47">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2">
+        <v>45184</v>
+      </c>
+      <c r="D48">
+        <v>2.27</v>
+      </c>
+      <c r="E48">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45191</v>
+      </c>
+      <c r="D49">
+        <v>2.12</v>
+      </c>
+      <c r="E49">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45198</v>
+      </c>
+      <c r="D50" s="27">
+        <v>2.08</v>
+      </c>
+      <c r="E50" s="26">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45205</v>
+      </c>
+      <c r="D51" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E51" s="26">
+        <v>2.4039999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>45212</v>
+      </c>
+      <c r="D52" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E52">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>45219</v>
+      </c>
+      <c r="D53">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E53">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>45226</v>
+      </c>
+      <c r="D54">
+        <v>2.58</v>
+      </c>
+      <c r="E54">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45233</v>
+      </c>
+      <c r="E55">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45240</v>
+      </c>
+      <c r="E56">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45247</v>
+      </c>
+      <c r="E57">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45254</v>
+      </c>
+      <c r="E58">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45261</v>
+      </c>
+      <c r="E59">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F59">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45268</v>
+      </c>
+      <c r="E60">
+        <v>2.33</v>
+      </c>
+      <c r="F60">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45275</v>
+      </c>
+      <c r="E61">
+        <v>2.21</v>
+      </c>
+      <c r="F61">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E62" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="F62" s="26">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45289</v>
+      </c>
+      <c r="E63" s="26">
+        <v>2.39</v>
+      </c>
+      <c r="F63" s="26">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45296</v>
+      </c>
+      <c r="E64">
+        <v>2.54</v>
+      </c>
+      <c r="F64">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45303</v>
+      </c>
+      <c r="E65">
+        <v>2.41</v>
+      </c>
+      <c r="F65">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45310</v>
+      </c>
+      <c r="E66">
+        <v>2.41</v>
+      </c>
+      <c r="F66">
+        <v>2.42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2238,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596092BD-1EF6-4EC0-96F0-3BB4B0DA037F}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2255,31 +2467,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
@@ -2396,7 +2608,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="26">
         <v>1.2</v>
       </c>
     </row>
@@ -2443,7 +2655,7 @@
       <c r="D19">
         <v>2.84</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2485,7 +2697,7 @@
       <c r="D22">
         <v>1.89</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="26">
         <v>1.3</v>
       </c>
     </row>
@@ -2499,7 +2711,7 @@
       <c r="D23">
         <v>1.47</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="26">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2510,7 +2722,7 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="26">
         <v>1.4</v>
       </c>
       <c r="E24">
@@ -2616,7 +2828,7 @@
       <c r="D32">
         <v>1.57</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2644,7 +2856,7 @@
       <c r="D34">
         <v>1.43</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="26">
         <v>1.9</v>
       </c>
     </row>
@@ -2672,7 +2884,7 @@
       <c r="D36">
         <v>1.52</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="26">
         <v>2</v>
       </c>
     </row>
@@ -2764,7 +2976,7 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="26">
         <v>1.7</v>
       </c>
     </row>
@@ -2809,13 +3021,267 @@
         <v>45177</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>2.25</v>
       </c>
       <c r="E47">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>2.27</v>
+      </c>
+      <c r="E48">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2.12</v>
+      </c>
+      <c r="E49">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="26">
+        <v>2.08</v>
+      </c>
+      <c r="E50" s="26">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D51" s="26">
+        <v>2.4039999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D52">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D53">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>2.58</v>
+      </c>
+      <c r="D54">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E59">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>2.33</v>
+      </c>
+      <c r="E60">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>2.21</v>
+      </c>
+      <c r="E61">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="E62" s="26">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63">
+        <v>2.39</v>
+      </c>
+      <c r="E63">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>2.54</v>
+      </c>
+      <c r="D64">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>2.41</v>
+      </c>
+      <c r="D65">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>2.41</v>
+      </c>
+      <c r="D66">
+        <v>2.42</v>
       </c>
     </row>
   </sheetData>
